--- a/Output/Text_ICESregions.xlsx
+++ b/Output/Text_ICESregions.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Online for git\VME-Advice\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3284F6E6-159B-478E-86BC-4C9DD6517330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916B9C7E-44C8-43E4-9093-6DB758FC658C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="14016" activeTab="3" xr2:uid="{90E8C523-2EB8-4767-AEB4-62A7F08F69EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{90E8C523-2EB8-4767-AEB4-62A7F08F69EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="2" r:id="rId1"/>
     <sheet name="Celtic Seas" sheetId="1" r:id="rId2"/>
     <sheet name="BoBIC" sheetId="3" r:id="rId3"/>
     <sheet name="Greater North Sea" sheetId="4" r:id="rId4"/>
+    <sheet name="Azores" sheetId="5" r:id="rId5"/>
+    <sheet name="Icelandic Waters" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="28">
   <si>
     <t>Overview</t>
   </si>
@@ -82,9 +84,6 @@
     <t>Bottom fishing (static and mobile) is the single most important human-induced pressure on the seafloor in this area (see [ICES ecosystem overviews](https://www.ices.dk/advice/ESD/Pages/Ecosystem-overviews.aspx)). &lt;br&gt; &lt;br&gt;</t>
   </si>
   <si>
-    <t>To be filled in. &lt;br&gt; &lt;br&gt;</t>
-  </si>
-  <si>
     <t>No new VME physical elements were added to the area. &lt;br&gt; &lt;br&gt;</t>
   </si>
   <si>
@@ -122,6 +121,9 @@
   </si>
   <si>
     <t>Most new VME Habitat and Index C-squares are outside previous defined VME polygons. &lt;br&gt; &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The VME polygons will reduce the fishable domain between 400-800m depth with xx-xx% (depending on the scenarios/options).  &lt;br&gt; &lt;br&gt;</t>
   </si>
 </sst>
 </file>
@@ -502,7 +504,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -515,7 +517,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -588,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -599,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -610,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -621,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -632,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -643,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -654,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -665,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -676,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -687,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -701,7 +703,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:C15"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,10 +756,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -765,14 +767,14 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -783,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -794,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -805,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -816,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -827,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -838,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -849,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -860,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -871,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -883,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA71026-6726-435D-91DF-0CC0F0BD59CB}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,26 +940,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -968,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -979,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -990,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1001,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -1012,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1023,10 +1025,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -1034,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -1045,10 +1047,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1056,7 +1058,377 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE0887B-FA4D-40F7-A6D4-89413E62F593}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="90.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19162552-4C2D-4F82-9883-65C7A9F018E1}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="90.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
